--- a/Capsulecrm/target/classes/InputData.xlsx
+++ b/Capsulecrm/target/classes/InputData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shubha663721\eclipse-workspace\Capsulecrm\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shubham\Desktop\CapsuleCRM\CapsuleCRM-Project\Capsulecrm\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154A2FE9-60AB-4FE6-9615-B856960BFFC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddPerson" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FirstName</t>
   </si>
@@ -59,16 +60,22 @@
     <t>Harry</t>
   </si>
   <si>
-    <t>Case Name</t>
+    <t>CaseName</t>
   </si>
   <si>
     <t>Fire Alarm</t>
+  </si>
+  <si>
+    <t>tagValue</t>
+  </si>
+  <si>
+    <t>Fire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,11 +387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,9 +402,10 @@
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -419,8 +427,11 @@
       <c r="G1" t="s">
         <v>11</v>
       </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -441,6 +452,9 @@
       </c>
       <c r="G2" t="s">
         <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Capsulecrm/target/classes/InputData.xlsx
+++ b/Capsulecrm/target/classes/InputData.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AddPerson" sheetId="1" r:id="rId1"/>
+    <sheet name="AccountSettings" sheetId="2" r:id="rId2"/>
+    <sheet name="Users" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>FirstName</t>
   </si>
@@ -59,17 +61,101 @@
     <t>Harry</t>
   </si>
   <si>
-    <t>Case Name</t>
-  </si>
-  <si>
     <t>Fire Alarm</t>
+  </si>
+  <si>
+    <t>CaseName</t>
+  </si>
+  <si>
+    <t>tagValue</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>AccountSetting1</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Invoices</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Mail Drop Box</t>
+  </si>
+  <si>
+    <t>Custom Fields</t>
+  </si>
+  <si>
+    <t>Trash</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Opportunities</t>
+  </si>
+  <si>
+    <t>Tracks</t>
+  </si>
+  <si>
+    <t>Task Categories</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Integrations</t>
+  </si>
+  <si>
+    <t>Titles</t>
+  </si>
+  <si>
+    <t>Tags and DataTags</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Shubham</t>
+  </si>
+  <si>
+    <t>Joshi</t>
+  </si>
+  <si>
+    <t>shubhamjoshi12@yahoo.in</t>
+  </si>
+  <si>
+    <t>shujoshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayan </t>
+  </si>
+  <si>
+    <t>nayanjoshi@yahoo.in</t>
+  </si>
+  <si>
+    <t>nayjoshi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +163,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,14 +201,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +508,7 @@
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -417,10 +528,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -440,11 +554,215 @@
         <v>9999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>